--- a/gaza_injuries_fc/inputs/Injuries_Raw-Clean_all.xlsx
+++ b/gaza_injuries_fc/inputs/Injuries_Raw-Clean_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\gaza\gaza_injuries_fc\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4887318E-0980-49F5-83E1-4DED5A96A5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B06BC28-ECA2-4DB5-94A1-50C01A22A094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{B322D33D-FCD1-AD46-8C68-60C8BE67A511}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B322D33D-FCD1-AD46-8C68-60C8BE67A511}"/>
   </bookViews>
   <sheets>
     <sheet name="Landmine and Ordnance Injuries" sheetId="2" r:id="rId1"/>
@@ -2864,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0829C9-57B7-4F70-9B2E-4BC16D95C6F4}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2951,7 +2951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F3EBA6-18DF-45EF-8887-26777496DA66}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -3127,15 +3127,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Visibility xmlns="6a164dda-3779-4169-b957-e287451f6523">Internal</Visibility>
@@ -3147,7 +3138,21 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="8207403b-203c-4ed3-95cd-88a852189123" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF0DACDCAE436E44A93D1320B0E08CE3" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf0dc399b675815c8497c362ea92650">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a164dda-3779-4169-b957-e287451f6523" xmlns:ns3="790fec47-3702-4ac6-96c4-67ae7c83b848" xmlns:ns4="1f040d83-acda-4733-88dd-a3ffb180d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee8fd2a25eb7cf516c232a6b0514ad4b" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6a164dda-3779-4169-b957-e287451f6523"/>
@@ -3384,20 +3389,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="8207403b-203c-4ed3-95cd-88a852189123" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424E4049-32D4-4FB9-80F4-041EF90A1CD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D4EA1E8-CDFF-4BB4-804B-F5178BC03207}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3409,7 +3401,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{424E4049-32D4-4FB9-80F4-041EF90A1CD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F77A34A4-9968-439B-ABE4-6F58F87F0664}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA219C3E-251B-4725-872B-2EF60DC8EF36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3427,12 +3435,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F77A34A4-9968-439B-ABE4-6F58F87F0664}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>